--- a/data/pca/factorExposure/factorExposure_2013-06-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-06-19.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002425423787849259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.00173520961555734</v>
+      </c>
+      <c r="C2">
+        <v>0.03120931136683346</v>
+      </c>
+      <c r="D2">
+        <v>0.003420261907594163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.002111685238802484</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006327772953030871</v>
+      </c>
+      <c r="C4">
+        <v>0.0836718179834873</v>
+      </c>
+      <c r="D4">
+        <v>0.08068095684071624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0002376665942847191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01365951180244314</v>
+      </c>
+      <c r="C6">
+        <v>0.1069615213757219</v>
+      </c>
+      <c r="D6">
+        <v>0.03526059557917698</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001402833512944041</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.005086287016051161</v>
+      </c>
+      <c r="C7">
+        <v>0.052092305146228</v>
+      </c>
+      <c r="D7">
+        <v>0.03829753604312196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.002564766156913479</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005900892767589504</v>
+      </c>
+      <c r="C8">
+        <v>0.03726663743084944</v>
+      </c>
+      <c r="D8">
+        <v>0.04271008336753466</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.00591801993970733</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.004278735021359574</v>
+      </c>
+      <c r="C9">
+        <v>0.06847416324591721</v>
+      </c>
+      <c r="D9">
+        <v>0.07026123484024516</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.005268497839755</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005802696187687177</v>
+      </c>
+      <c r="C10">
+        <v>0.07917892143225963</v>
+      </c>
+      <c r="D10">
+        <v>-0.2135142114807161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.005667990284512224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005169308773364672</v>
+      </c>
+      <c r="C11">
+        <v>0.0791047758588205</v>
+      </c>
+      <c r="D11">
+        <v>0.06618364044700771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.001167476971789762</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004088838353592868</v>
+      </c>
+      <c r="C12">
+        <v>0.06318603088849399</v>
+      </c>
+      <c r="D12">
+        <v>0.04734998857117715</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003677939316259988</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008801692345596385</v>
+      </c>
+      <c r="C13">
+        <v>0.06969561608743753</v>
+      </c>
+      <c r="D13">
+        <v>0.07088036276007807</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.004770906201160213</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.002169679575102762</v>
+      </c>
+      <c r="C14">
+        <v>0.04728037207521828</v>
+      </c>
+      <c r="D14">
+        <v>0.01505347824578904</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.003212043799066869</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005907340088146553</v>
+      </c>
+      <c r="C15">
+        <v>0.03748511763419805</v>
+      </c>
+      <c r="D15">
+        <v>0.04313011800098796</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.003367967186262812</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005247831410066791</v>
+      </c>
+      <c r="C16">
+        <v>0.0645672122239731</v>
+      </c>
+      <c r="D16">
+        <v>0.04997778168031623</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.001562512803960172</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.009398681935211631</v>
+      </c>
+      <c r="C20">
+        <v>0.06522947925939983</v>
+      </c>
+      <c r="D20">
+        <v>0.05827528539392916</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.003686992757611116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009948610701233096</v>
+      </c>
+      <c r="C21">
+        <v>0.02511912748135888</v>
+      </c>
+      <c r="D21">
+        <v>0.03768549549755104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01668834735456681</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.007023868674298601</v>
+      </c>
+      <c r="C22">
+        <v>0.08708275979773096</v>
+      </c>
+      <c r="D22">
+        <v>0.106178263563955</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01689632806739662</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006786704100110746</v>
+      </c>
+      <c r="C23">
+        <v>0.08966318823514176</v>
+      </c>
+      <c r="D23">
+        <v>0.1029482326071115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.004493224207564442</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.004814600874825278</v>
+      </c>
+      <c r="C24">
+        <v>0.07240896313017768</v>
+      </c>
+      <c r="D24">
+        <v>0.06027090084466121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.005580191267379173</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.00306767183493338</v>
+      </c>
+      <c r="C25">
+        <v>0.07693399517025133</v>
+      </c>
+      <c r="D25">
+        <v>0.06499849203173197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.006764418606307415</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003728485899845098</v>
+      </c>
+      <c r="C26">
+        <v>0.04140688587235967</v>
+      </c>
+      <c r="D26">
+        <v>0.02863370912684546</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.005541529595910646</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>8.275329365816972e-06</v>
+      </c>
+      <c r="C28">
+        <v>0.1288424541319988</v>
+      </c>
+      <c r="D28">
+        <v>-0.306673717715623</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001964662823110581</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.00350401734381818</v>
+      </c>
+      <c r="C29">
+        <v>0.04939022917785676</v>
+      </c>
+      <c r="D29">
+        <v>0.02020266349924714</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.00696704167471413</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009670043447140453</v>
+      </c>
+      <c r="C30">
+        <v>0.136058725134666</v>
+      </c>
+      <c r="D30">
+        <v>0.108853289311175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0002340641595676862</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006155846212217929</v>
+      </c>
+      <c r="C31">
+        <v>0.04667621133653329</v>
+      </c>
+      <c r="D31">
+        <v>0.03641099872618106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.001173058170013635</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.004346004567961177</v>
+      </c>
+      <c r="C32">
+        <v>0.04211491489767925</v>
+      </c>
+      <c r="D32">
+        <v>0.0145009525854845</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.003616869319433058</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008119302175704873</v>
+      </c>
+      <c r="C33">
+        <v>0.08245021278481897</v>
+      </c>
+      <c r="D33">
+        <v>0.07625127407302576</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.005875729936315264</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.003864052466540795</v>
+      </c>
+      <c r="C34">
+        <v>0.05639475259941547</v>
+      </c>
+      <c r="D34">
+        <v>0.0442103486883532</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.004114705309895965</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005046905639681276</v>
+      </c>
+      <c r="C35">
+        <v>0.04016346460613932</v>
+      </c>
+      <c r="D35">
+        <v>0.01393740210756797</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004776487657331819</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001338672576863649</v>
+      </c>
+      <c r="C36">
+        <v>0.02470968099432897</v>
+      </c>
+      <c r="D36">
+        <v>0.02517082527215721</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.001992780772544983</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009424485972227054</v>
+      </c>
+      <c r="C38">
+        <v>0.03432432538635292</v>
+      </c>
+      <c r="D38">
+        <v>0.03202728821095439</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01455651389655713</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.0006660709842660742</v>
+      </c>
+      <c r="C39">
+        <v>0.1145263767943451</v>
+      </c>
+      <c r="D39">
+        <v>0.08233983041417786</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.008784581928196786</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002548214678373452</v>
+      </c>
+      <c r="C40">
+        <v>0.085158053441918</v>
+      </c>
+      <c r="D40">
+        <v>0.02866192536118987</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0002310645550287313</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007534799151887611</v>
+      </c>
+      <c r="C41">
+        <v>0.03971170370116033</v>
+      </c>
+      <c r="D41">
+        <v>0.03841109828180988</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.001982135509329324</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003157082044168699</v>
+      </c>
+      <c r="C43">
+        <v>0.05034681317857063</v>
+      </c>
+      <c r="D43">
+        <v>0.03145443614723768</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.005736397072433521</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.004052004609113214</v>
+      </c>
+      <c r="C44">
+        <v>0.1062447487979994</v>
+      </c>
+      <c r="D44">
+        <v>0.08507288426040263</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.002991221566738528</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002622294589093646</v>
+      </c>
+      <c r="C46">
+        <v>0.03394137588932191</v>
+      </c>
+      <c r="D46">
+        <v>0.0346431795558299</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.002008162123681484</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002878138846481239</v>
+      </c>
+      <c r="C47">
+        <v>0.03803332513837814</v>
+      </c>
+      <c r="D47">
+        <v>0.03046053718877915</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003849629803470082</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006566963691924371</v>
+      </c>
+      <c r="C48">
+        <v>0.03050437647596284</v>
+      </c>
+      <c r="D48">
+        <v>0.0323977133609042</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01518542838313631</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01452041806126429</v>
+      </c>
+      <c r="C49">
+        <v>0.1697460179846397</v>
+      </c>
+      <c r="D49">
+        <v>0.03298190689503898</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0004758768195927897</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.004160540198753226</v>
+      </c>
+      <c r="C50">
+        <v>0.04142933425298134</v>
+      </c>
+      <c r="D50">
+        <v>0.04062207692242509</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.002039427042106818</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004096741979216311</v>
+      </c>
+      <c r="C51">
+        <v>0.02054902121812952</v>
+      </c>
+      <c r="D51">
+        <v>0.03400287141646793</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0001969920837975624</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02058055464083633</v>
+      </c>
+      <c r="C53">
+        <v>0.1657203055616464</v>
+      </c>
+      <c r="D53">
+        <v>0.05398951097689134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.0007194417388249108</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008665363529511057</v>
+      </c>
+      <c r="C54">
+        <v>0.05492602790845534</v>
+      </c>
+      <c r="D54">
+        <v>0.04192598495557735</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.005918521916043158</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.0099545772415117</v>
+      </c>
+      <c r="C55">
+        <v>0.1050737428459356</v>
+      </c>
+      <c r="D55">
+        <v>0.05438999565877316</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002208365231880946</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.01974174127142884</v>
+      </c>
+      <c r="C56">
+        <v>0.1712832303352372</v>
+      </c>
+      <c r="D56">
+        <v>0.05270285711681273</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.008231778077933426</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01973114569252033</v>
+      </c>
+      <c r="C58">
+        <v>0.1009174250066988</v>
+      </c>
+      <c r="D58">
+        <v>0.0808548194682136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.007704463283784846</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.008787116524886869</v>
+      </c>
+      <c r="C59">
+        <v>0.1692243193973182</v>
+      </c>
+      <c r="D59">
+        <v>-0.272836656777185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.007141005303462454</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02349510208097493</v>
+      </c>
+      <c r="C60">
+        <v>0.2214404171762362</v>
+      </c>
+      <c r="D60">
+        <v>0.02826400185798241</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.0170149033999372</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001844076937692636</v>
+      </c>
+      <c r="C61">
+        <v>0.09523326617485958</v>
+      </c>
+      <c r="D61">
+        <v>0.06212701213231193</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1872262121252356</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1448844168370498</v>
+      </c>
+      <c r="C62">
+        <v>0.07036256545337427</v>
+      </c>
+      <c r="D62">
+        <v>0.04950321462926735</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.002779315688474108</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.00679515615055862</v>
+      </c>
+      <c r="C63">
+        <v>0.05811518116674819</v>
+      </c>
+      <c r="D63">
+        <v>0.02771557587445918</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.006534477487094166</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.0156787780018732</v>
+      </c>
+      <c r="C64">
+        <v>0.09852924829759961</v>
+      </c>
+      <c r="D64">
+        <v>0.06537125937042887</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.000445933206387993</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01719370112071782</v>
+      </c>
+      <c r="C65">
+        <v>0.1120127692150884</v>
+      </c>
+      <c r="D65">
+        <v>0.03183801502971098</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.01126140043127839</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01276852667849906</v>
+      </c>
+      <c r="C66">
+        <v>0.1519825374262617</v>
+      </c>
+      <c r="D66">
+        <v>0.1200568225215755</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002203497529455099</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.0153216987703133</v>
+      </c>
+      <c r="C67">
+        <v>0.06317036400704268</v>
+      </c>
+      <c r="D67">
+        <v>0.04250849763631848</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.008739208154216579</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.001412579337087481</v>
+      </c>
+      <c r="C68">
+        <v>0.1130677101008931</v>
+      </c>
+      <c r="D68">
+        <v>-0.2629814048080722</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.003375240009725732</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.005336635001800386</v>
+      </c>
+      <c r="C69">
+        <v>0.04543029063404992</v>
+      </c>
+      <c r="D69">
+        <v>0.04759398244262106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001692084491499079</v>
+      </c>
+      <c r="C70">
+        <v>0.002065464819700779</v>
+      </c>
+      <c r="D70">
+        <v>0.002298165822073343</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.003924579578346812</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.006230389219502975</v>
+      </c>
+      <c r="C71">
+        <v>0.1154903401636714</v>
+      </c>
+      <c r="D71">
+        <v>-0.2807141870102542</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.009065169690977407</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01558547405749054</v>
+      </c>
+      <c r="C72">
+        <v>0.1501334465579512</v>
+      </c>
+      <c r="D72">
+        <v>0.02773198525096259</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01427390194122301</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03172629160926985</v>
+      </c>
+      <c r="C73">
+        <v>0.2828913440470869</v>
+      </c>
+      <c r="D73">
+        <v>0.04941119461515799</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.00606799190118997</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002031452505604824</v>
+      </c>
+      <c r="C74">
+        <v>0.1029665050550941</v>
+      </c>
+      <c r="D74">
+        <v>0.04477220372939365</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.007735188963942136</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01076846312739751</v>
+      </c>
+      <c r="C75">
+        <v>0.1310844266144157</v>
+      </c>
+      <c r="D75">
+        <v>0.04456100000105422</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01117075989259092</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02154218372522922</v>
+      </c>
+      <c r="C76">
+        <v>0.1439757726369685</v>
+      </c>
+      <c r="D76">
+        <v>0.07330316096800014</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001722106475876127</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02332260508267387</v>
+      </c>
+      <c r="C77">
+        <v>0.1301538923904497</v>
+      </c>
+      <c r="D77">
+        <v>0.06620389652287897</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0006965762664590154</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01488856855229372</v>
+      </c>
+      <c r="C78">
+        <v>0.09040751262238481</v>
+      </c>
+      <c r="D78">
+        <v>0.06839797860561735</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02614141258565252</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03703027880242264</v>
+      </c>
+      <c r="C79">
+        <v>0.1553452539413137</v>
+      </c>
+      <c r="D79">
+        <v>0.03804394087231071</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.005027748233147528</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01091709818133385</v>
+      </c>
+      <c r="C80">
+        <v>0.04198526268632163</v>
+      </c>
+      <c r="D80">
+        <v>0.03549980602026012</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0002005231782096625</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01489660375169577</v>
+      </c>
+      <c r="C81">
+        <v>0.1210463239409674</v>
+      </c>
+      <c r="D81">
+        <v>0.06199467124165588</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.006685681476451094</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01925114082656184</v>
+      </c>
+      <c r="C82">
+        <v>0.1405279510047933</v>
+      </c>
+      <c r="D82">
+        <v>0.0499486095191881</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.007131501755997944</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.009763074689644647</v>
+      </c>
+      <c r="C83">
+        <v>0.05661230237571743</v>
+      </c>
+      <c r="D83">
+        <v>0.04820132311246276</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01283140240884954</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01231992431303556</v>
+      </c>
+      <c r="C84">
+        <v>0.02985562177470177</v>
+      </c>
+      <c r="D84">
+        <v>-0.0001189395525966474</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01478897442941534</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02851516483526273</v>
+      </c>
+      <c r="C85">
+        <v>0.1286682744026648</v>
+      </c>
+      <c r="D85">
+        <v>0.05504839131424977</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.004417192795542845</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.004823208558417228</v>
+      </c>
+      <c r="C86">
+        <v>0.04723702293587385</v>
+      </c>
+      <c r="D86">
+        <v>0.02254248421299827</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.007988821856304435</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01067591459051518</v>
+      </c>
+      <c r="C87">
+        <v>0.1254811861522314</v>
+      </c>
+      <c r="D87">
+        <v>0.0790644958806201</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01470922776339649</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002925753118452723</v>
+      </c>
+      <c r="C88">
+        <v>0.07027187641301962</v>
+      </c>
+      <c r="D88">
+        <v>0.02142267527717519</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01567497879955439</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.00203963680789551</v>
+      </c>
+      <c r="C89">
+        <v>0.165079723130216</v>
+      </c>
+      <c r="D89">
+        <v>-0.341457270071677</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002386592678354625</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.007659136315578673</v>
+      </c>
+      <c r="C90">
+        <v>0.1479419979820179</v>
+      </c>
+      <c r="D90">
+        <v>-0.3157104440236239</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0005403736368835225</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01015900962277432</v>
+      </c>
+      <c r="C91">
+        <v>0.102092680579919</v>
+      </c>
+      <c r="D91">
+        <v>0.02465733328679494</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01627261909721366</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0007742891869917922</v>
+      </c>
+      <c r="C92">
+        <v>0.1553466221441903</v>
+      </c>
+      <c r="D92">
+        <v>-0.3260616358017471</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001576347113804216</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004898887460992666</v>
+      </c>
+      <c r="C93">
+        <v>0.1282233398432239</v>
+      </c>
+      <c r="D93">
+        <v>-0.3105817968221015</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.001648532727999012</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.0222417985938658</v>
+      </c>
+      <c r="C94">
+        <v>0.1560572443846633</v>
+      </c>
+      <c r="D94">
+        <v>0.03639956443066462</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.007543864749280834</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01665461273282331</v>
+      </c>
+      <c r="C95">
+        <v>0.1214360246360469</v>
+      </c>
+      <c r="D95">
+        <v>0.06737265895580696</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.004213379045103916</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03410279178886273</v>
+      </c>
+      <c r="C97">
+        <v>0.1735351768869557</v>
+      </c>
+      <c r="D97">
+        <v>0.0418986372343229</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.00798660207027737</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.0361640908194004</v>
+      </c>
+      <c r="C98">
+        <v>0.2576637103322418</v>
+      </c>
+      <c r="D98">
+        <v>0.04312642089306993</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9797326129428858</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9823414951180415</v>
+      </c>
+      <c r="C99">
+        <v>-0.1104290955688414</v>
+      </c>
+      <c r="D99">
+        <v>-0.0344817852868671</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001919354855409193</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.00354855323585151</v>
+      </c>
+      <c r="C101">
+        <v>0.0494736279632777</v>
+      </c>
+      <c r="D101">
+        <v>0.02023902261444976</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
